--- a/Difficulty levels specification.xlsx
+++ b/Difficulty levels specification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>0.8</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>0.2</t>
-  </si>
-  <si>
-    <t>0.4</t>
   </si>
   <si>
     <t>0.6</t>
@@ -390,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,22 +405,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -431,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -443,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -452,7 +449,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -461,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -473,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -491,14 +488,68 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>20</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
